--- a/biology/Zoologie/Gonatodes_albogularis/Gonatodes_albogularis.xlsx
+++ b/biology/Zoologie/Gonatodes_albogularis/Gonatodes_albogularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gonatodes albogularis est une espèce de geckos de la famille des Sphaerodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gonatodes albogularis est une espèce de geckos de la famille des Sphaerodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 aux Antilles ;
 en Amérique centrale ;
 au Venezuela ;
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce diurne, qui à le corps noir parsemé de petites taches claires, avec la tête jaune parsemée de petites taches noires.
 Il a un aspect assez élancé, avec une queue fine. Les œufs incubent un peu plus de deux mois à 28 °C.
@@ -579,9 +595,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (1 juin 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (1 juin 2012) :
 Gonatodes albogularis albogularis (Duméril &amp; Bibron, 1836)
 Gonatodes albogularis bodinii Rivero Blanco, 1964
 Gonatodes albogularis notatus (Reinhardt &amp; Lütken, 1862)</t>
@@ -612,9 +630,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Gonatodes albogularis fuscus[3] a été élevée au rang d'espèce.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Gonatodes albogularis fuscus a été élevée au rang d'espèce.
 </t>
         </is>
       </c>
@@ -643,7 +663,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1836 : Erpetologie Générale ou Histoire Naturelle Complete des Reptiles. Librairie Encyclopédique Roret, Paris, vol. 3, p. 1-517 (texte intégral).
 Reinhardt &amp; Lütken, 1862 : Bidrag tii det vestindiske Öriges og navnligen tii de dansk-vestindiske Oers Herpetologie. Videnskabelige meddelelser fra den Naturhistoriske forening i Kjöbenhavn, vol. 1862, n. 10/18, p. 153-291 (texte intégral).
